--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alicia\Documents\ADA\Projet\Trop_facile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E363A1-3C85-4A0F-9FCF-E9011CDCCB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBB138F-0D30-4BAE-85F4-20F97ACC9164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{70CF8B98-6564-497A-9670-2E6D3A464CCB}"/>
   </bookViews>
@@ -35,8 +35,28 @@
 </workbook>
 </file>
 
+<file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
+<python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
+  <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
+    <initialization>
+      <code xml:space="preserve">import numpy as np
+import pandas as pd
+import matplotlib.pyplot as plt
+import seaborn as sns
+import statsmodels as sm
+import excel
+import warnings
+warnings.simplefilter('ignore')
+excel.set_xl_scalar_conversion(excel.convert_to_scalar)
+excel.set_xl_array_conversion(excel.convert_to_dataframe)
+</code>
+    </initialization>
+  </environmentDefinition>
+</python>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
   <si>
     <t>ID</t>
   </si>
@@ -47,14 +67,17 @@
     <t>Réduction</t>
   </si>
   <si>
-    <t>False</t>
+    <t>Théa</t>
+  </si>
+  <si>
+    <t>Graphy-T</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,12 +458,12 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -451,136 +474,100 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>74698</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>45809</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>39541</v>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>45748</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>74698</v>
       </c>
       <c r="B4" s="1">
         <v>45839</v>
       </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>39541</v>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>45809</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>74698</v>
       </c>
       <c r="B6" s="1">
         <v>45870</v>
       </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>39541</v>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>4</v>
       </c>
       <c r="B7" s="1">
         <v>45870</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>74698</v>
       </c>
       <c r="B8" s="1">
         <v>45901</v>
       </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>39541</v>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>4</v>
       </c>
       <c r="B9" s="1">
         <v>45931</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>74698</v>
       </c>
       <c r="B10" s="1">
         <v>45931</v>
       </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>39541</v>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>4</v>
       </c>
       <c r="B11" s="1">
         <v>45992</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>74698</v>
       </c>
       <c r="B12" s="1">
         <v>45962</v>
       </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>39541</v>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>4</v>
       </c>
       <c r="B13" s="1">
         <v>46054</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alicia\Documents\ADA\Projet\Trop_facile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBB138F-0D30-4BAE-85F4-20F97ACC9164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96720CB5-7842-4DA7-8C81-8275440685DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{70CF8B98-6564-497A-9670-2E6D3A464CCB}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="8">
   <si>
     <t>ID</t>
   </si>
@@ -71,6 +71,15 @@
   </si>
   <si>
     <t>Graphy-T</t>
+  </si>
+  <si>
+    <t>Aucune réduction</t>
+  </si>
+  <si>
+    <t>Réduction non prise</t>
+  </si>
+  <si>
+    <t>Réduction prise</t>
   </si>
 </sst>
 </file>
@@ -135,6 +144,16 @@
     <tableColumn id="3" xr3:uid="{EDBB01F0-5748-492F-8F53-96469885B94A}" name="Réduction"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{27F1252F-C1A0-4381-9517-3E58544BA214}" name="Tableau2" displayName="Tableau2" ref="E1:E4" totalsRowShown="0">
+  <autoFilter ref="E1:E4" xr:uid="{27F1252F-C1A0-4381-9517-3E58544BA214}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{D21C6B6C-3A2F-47A3-9449-7D98B4997E72}" name="Réduction"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -455,15 +474,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFFA5C97-C4BA-4921-91C6-49F66BEDC4DF}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.90625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -473,107 +497,164 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>45809</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>45748</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>45839</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>45809</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="1">
         <v>45870</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1">
         <v>45870</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="1">
         <v>45901</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1">
         <v>45931</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="1">
         <v>45931</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="1">
         <v>45992</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="1">
         <v>45962</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="1">
         <v>46054</v>
       </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Réduction" sqref="I7" xr:uid="{E2EFB977-B208-42FE-9680-09F108B05C8B}">
+      <formula1>$E$1:$E$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C13" xr:uid="{AB3565AE-712A-416E-8A36-8FBF73F43DEC}">
+      <formula1>$E$2:$E$4</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>